--- a/public/uploads/excel/5af04bf4be2d4570b2a25735_claimAdvance.xlsx
+++ b/public/uploads/excel/5af04bf4be2d4570b2a25735_claimAdvance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -34,25 +34,16 @@
     <t>Total_Transfer</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Mp cordinator</t>
-  </si>
-  <si>
-    <t>Madhya pradesh</t>
-  </si>
-  <si>
-    <t>HWMP</t>
-  </si>
-  <si>
-    <t>Deepak kumar DL</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>SMDL</t>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Manish Pandey</t>
+  </si>
+  <si>
+    <t>Rajsthan</t>
+  </si>
+  <si>
+    <t>HWRJ</t>
   </si>
 </sst>
 </file>
@@ -430,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="10" customWidth="1"/>
@@ -464,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>42936</v>
+        <v>43319</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -480,29 +471,6 @@
       </c>
       <c r="G2">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42936</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>5000</v>
       </c>
     </row>
   </sheetData>
